--- a/Apocalypse.xlsx
+++ b/Apocalypse.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="5535" windowHeight="4470"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="5535" windowHeight="4455"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="111">
   <si>
     <t>種類</t>
     <rPh sb="0" eb="2">
@@ -119,10 +119,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>Input</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ApplicationConfigを実装し全メンバstatic化</t>
     <rPh sb="18" eb="20">
       <t>ジッソウ</t>
@@ -140,16 +136,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ShiftとCtrlとAltの問題を解決する</t>
-    <rPh sb="15" eb="17">
-      <t>モンダイ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>カイケツ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>低</t>
     <rPh sb="0" eb="1">
       <t>テイ</t>
@@ -515,13 +501,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>HTML方式でやるかどうか</t>
-    <rPh sb="4" eb="6">
-      <t>ホウシキ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Value</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -533,6 +512,381 @@
     <t>順序</t>
     <rPh sb="0" eb="2">
       <t>ジュンジョ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Collection</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>setをlistに変えて明示的にSort関数を呼び出す</t>
+    <rPh sb="9" eb="10">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>メイジ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>中</t>
+    <rPh sb="0" eb="1">
+      <t>チュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Interface</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>MenuInterface, MenuItemの実装(operator/Event/etc)</t>
+    <rPh sb="24" eb="26">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>高</t>
+    <rPh sb="0" eb="1">
+      <t>コウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Input</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>keysを_KeysDataに置き換える(内部隠蔽化)</t>
+    <rPh sb="15" eb="16">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ナイブ</t>
+    </rPh>
+    <rPh sb="23" eb="26">
+      <t>インペイカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>低</t>
+    <rPh sb="0" eb="1">
+      <t>テイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>KeysにAND/OR指定をできるように変更</t>
+    <rPh sb="11" eb="13">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Event</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>EventHandleをいくつか作成する</t>
+    <rPh sb="16" eb="18">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>面倒</t>
+    <rPh sb="0" eb="2">
+      <t>メンドウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>✔</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Event</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>shared_ptr面倒だから普通のポインタに直す</t>
+    <rPh sb="10" eb="12">
+      <t>メンドウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>フツウ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ナオ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>低</t>
+    <rPh sb="0" eb="1">
+      <t>テイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Draw</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DrawOrderを最初に値を指定する形式に変更</t>
+    <rPh sb="10" eb="12">
+      <t>サイショ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ケイシキ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Value</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>String::Splitのエラーを解消する</t>
+    <rPh sb="18" eb="20">
+      <t>カイショウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>中</t>
+    <rPh sb="0" eb="1">
+      <t>チュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Sequenceが上の方に属するFrameのDrawOrderについて</t>
+    <rPh sb="9" eb="10">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ホウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ゾク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Draw</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画像フォントを扱える状況を構築する</t>
+    <rPh sb="0" eb="2">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>アツカ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジョウキョウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>コウチク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>高</t>
+    <rPh sb="0" eb="1">
+      <t>コウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>StringFrameの画像フォント扱える版を作る</t>
+    <rPh sb="12" eb="14">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>アツカ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>バン</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">✔ </t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>AreaViewFrameの実装</t>
+    <rPh sb="14" eb="16">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TableFrameの実装</t>
+    <rPh sb="11" eb="13">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SeqをCollection追加時にSeqIndexを指定，FrameSeqが0のものに対しTopSeqのSeqIndex指定</t>
+    <rPh sb="14" eb="16">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>✔</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>HTML/PSO2方式でやるかどうか</t>
+    <rPh sb="9" eb="11">
+      <t>ホウシキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Event</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>EventTypeにAndとOrを追加する</t>
+    <rPh sb="17" eb="19">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>低</t>
+    <rPh sb="0" eb="1">
+      <t>テイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>△</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>若干強引に解決</t>
+    <rPh sb="0" eb="2">
+      <t>ジャッカン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ゴウイン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カイケツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>And/Or/Nor/Not実装終了</t>
+    <rPh sb="14" eb="16">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>シュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>✔</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>StringFrameで文字の拡大描画を実装</t>
+    <rPh sb="12" eb="14">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>カクダイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ビョウガ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>中</t>
+    <rPh sb="0" eb="1">
+      <t>チュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Whole</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>コメントを読みやすいように修正加筆</t>
+    <rPh sb="5" eb="6">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>カヒツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>低</t>
+    <rPh sb="0" eb="1">
+      <t>テイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -628,6 +982,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -637,7 +992,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -932,14 +1286,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="テーブル1" displayName="テーブル1" ref="B2:H24" headerRowDxfId="15" dataDxfId="14">
-  <autoFilter ref="B2:H24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="テーブル1" displayName="テーブル1" ref="B2:H39" headerRowDxfId="15" dataDxfId="14">
+  <autoFilter ref="B2:H39">
     <filterColumn colId="0">
       <filters blank="1"/>
     </filterColumn>
   </autoFilter>
-  <sortState ref="B7:H24">
-    <sortCondition ref="H2:H24"/>
+  <sortState ref="B15:H37">
+    <sortCondition descending="1" ref="G2:G37"/>
   </sortState>
   <tableColumns count="7">
     <tableColumn id="1" name="✔" dataDxfId="13" totalsRowDxfId="12"/>
@@ -1241,10 +1595,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H24"/>
+  <dimension ref="B1:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D1"/>
+    <sheetView tabSelected="1" topLeftCell="C2" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.35"/>
@@ -1261,26 +1615,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="5"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="8"/>
+      <c r="G1" s="3">
+        <f>(COUNTA(B:B)-2)/(COUNTA(C:C)-1)*100</f>
+        <v>43.243243243243242</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F1" s="8"/>
-      <c r="G1" s="6">
-        <f>(COUNTA(B:B)-2)/(COUNTA(C:C)-1)*100</f>
-        <v>36.363636363636367</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>0</v>
@@ -1298,21 +1652,21 @@
         <v>2</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G3" s="1">
         <v>5</v>
@@ -1320,16 +1674,16 @@
     </row>
     <row r="4" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G4" s="1">
         <v>5</v>
@@ -1337,7 +1691,7 @@
     </row>
     <row r="5" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="B5" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>6</v>
@@ -1346,10 +1700,10 @@
         <v>13</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G5" s="1">
         <v>5</v>
@@ -1357,95 +1711,101 @@
     </row>
     <row r="6" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="B6" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="F6" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G6" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="C7" s="1" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="G7" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G8" s="1">
         <v>4</v>
       </c>
-      <c r="H7" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="C8" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G8" s="1">
-        <v>5</v>
-      </c>
-      <c r="H8" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="C9" s="1" t="s">
-        <v>5</v>
+        <v>72</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>21</v>
+        <v>73</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="G9" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="C10" s="1" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>17</v>
+        <v>75</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>19</v>
+        <v>68</v>
       </c>
       <c r="G10" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="C11" s="1" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G11" s="1">
         <v>3</v>
@@ -1453,13 +1813,13 @@
     </row>
     <row r="12" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="B12" s="1" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>18</v>
@@ -1468,192 +1828,426 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="1" t="s">
+        <v>93</v>
+      </c>
       <c r="C13" s="1" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>19</v>
+        <v>87</v>
       </c>
       <c r="G13" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="B14" s="1" t="s">
-        <v>37</v>
+        <v>97</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>43</v>
+        <v>88</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>96</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="G14" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C15" s="1" t="s">
-        <v>53</v>
+        <v>108</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>65</v>
+        <v>109</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="G15" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C16" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G16" s="1">
         <v>5</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G16" s="1">
-        <v>2</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C17" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>9</v>
+        <v>106</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>18</v>
+        <v>107</v>
       </c>
       <c r="G17" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="1" t="s">
-        <v>16</v>
-      </c>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C18" s="1" t="s">
-        <v>8</v>
+        <v>69</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="G18" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C19" s="1" t="s">
-        <v>27</v>
+        <v>83</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>30</v>
+        <v>94</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>20</v>
+        <v>71</v>
       </c>
       <c r="G19" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C20" s="1" t="s">
-        <v>38</v>
+        <v>89</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="F20" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G20" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B21" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G21" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G20" s="1">
+      <c r="F22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G22" s="1">
         <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G21" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="C22" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G22" s="1">
-        <v>1</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C23" s="1" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="G23" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C24" s="1" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="F24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G24" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G25" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C26" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G26" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C27" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G27" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C28" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F28" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G24" s="1">
+      <c r="G28" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C29" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G29" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C30" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G30" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B31" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G31" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C32" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G32" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C33" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G33" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C34" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G34" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C35" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G35" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C36" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G36" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C37" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G37" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C38" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G38" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C39" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G39" s="1">
         <v>1</v>
       </c>
     </row>

--- a/Apocalypse.xlsx
+++ b/Apocalypse.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="5535" windowHeight="4455"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="5535" windowHeight="3825" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="ToDo" sheetId="1" r:id="rId1"/>
+    <sheet name="ClassMember" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="127">
   <si>
     <t>種類</t>
     <rPh sb="0" eb="2">
@@ -888,6 +888,136 @@
     <rPh sb="0" eb="1">
       <t>テイ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Compile</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>../lib/をlib/に直すためにvsprojectファイルその他を移動</t>
+    <rPh sb="13" eb="14">
+      <t>ナオ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DxLib.hとApocalypse.hppに存在</t>
+    <rPh sb="23" eb="25">
+      <t>ソンザイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>高</t>
+    <rPh sb="0" eb="1">
+      <t>コウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Draw</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>PictureFrame,StringFrameをEdgeFrame継承に変更する</t>
+    <rPh sb="34" eb="36">
+      <t>ケイショウ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>クラスメンバ配置の規則性</t>
+    <rPh sb="6" eb="8">
+      <t>ハイチ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>キソクセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>public → private → protected</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>operator（戻り値明示無し→明示有り）</t>
+    <rPh sb="9" eb="10">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>メイジ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>メイジ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>コンストラクタ（引数が単純な順）</t>
+    <rPh sb="8" eb="10">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>タンジュン</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ジュン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>関数（const付き→const無し）</t>
+    <rPh sb="0" eb="2">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>変数</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンスウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>typedef</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>friend</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>enum</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>デストラクタ</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1286,8 +1416,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="テーブル1" displayName="テーブル1" ref="B2:H39" headerRowDxfId="15" dataDxfId="14">
-  <autoFilter ref="B2:H39">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="テーブル1" displayName="テーブル1" ref="B2:H41" headerRowDxfId="15" dataDxfId="14">
+  <autoFilter ref="B2:H41">
     <filterColumn colId="0">
       <filters blank="1"/>
     </filterColumn>
@@ -1595,10 +1725,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H39"/>
+  <dimension ref="B1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C2" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.35"/>
@@ -1606,7 +1736,7 @@
     <col min="1" max="1" width="0.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="3.875" style="1" customWidth="1"/>
     <col min="3" max="3" width="9.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="42.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="41.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.625" style="1" customWidth="1"/>
     <col min="6" max="6" width="7.25" style="1" customWidth="1"/>
     <col min="7" max="7" width="7.625" style="1" customWidth="1"/>
@@ -1626,7 +1756,7 @@
       <c r="F1" s="8"/>
       <c r="G1" s="3">
         <f>(COUNTA(B:B)-2)/(COUNTA(C:C)-1)*100</f>
-        <v>43.243243243243242</v>
+        <v>41.025641025641022</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>34</v>
@@ -1881,13 +2011,13 @@
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C16" s="1" t="s">
-        <v>51</v>
+        <v>115</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>53</v>
+        <v>116</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>59</v>
+        <v>114</v>
       </c>
       <c r="G16" s="1">
         <v>5</v>
@@ -1895,38 +2025,38 @@
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C17" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G17" s="1">
         <v>5</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="G17" s="1">
-        <v>4</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C18" s="1" t="s">
-        <v>69</v>
+        <v>5</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>71</v>
+        <v>107</v>
       </c>
       <c r="G18" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C19" s="1" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>71</v>
@@ -1937,33 +2067,27 @@
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C20" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="G20" s="1">
         <v>5</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B21" s="1" t="s">
-        <v>105</v>
-      </c>
       <c r="C21" s="1" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="G21" s="1">
         <v>5</v>
@@ -1971,163 +2095,163 @@
     </row>
     <row r="22" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B22" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G22" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E23" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="F23" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G22" s="1">
+      <c r="G23" s="1">
         <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="C23" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G23" s="1">
-        <v>4</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C24" s="1" t="s">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="G24" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="1" t="s">
-        <v>47</v>
-      </c>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C25" s="1" t="s">
-        <v>44</v>
+        <v>111</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>45</v>
+        <v>112</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>46</v>
+        <v>114</v>
       </c>
       <c r="G25" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C26" s="1" t="s">
-        <v>89</v>
+        <v>5</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>90</v>
+        <v>19</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>91</v>
+        <v>17</v>
       </c>
       <c r="G26" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="C27" s="1" t="s">
-        <v>89</v>
+        <v>44</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>92</v>
+        <v>45</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>91</v>
+        <v>46</v>
       </c>
       <c r="G27" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C28" s="1" t="s">
-        <v>64</v>
+        <v>89</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>61</v>
+        <v>90</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>18</v>
+        <v>91</v>
       </c>
       <c r="G28" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C29" s="1" t="s">
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>58</v>
+        <v>91</v>
       </c>
       <c r="G29" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C30" s="1" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>77</v>
+        <v>24</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="G30" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B31" s="1" t="s">
-        <v>102</v>
-      </c>
       <c r="C31" s="1" t="s">
-        <v>85</v>
+        <v>51</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>86</v>
+        <v>54</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>87</v>
+        <v>58</v>
       </c>
       <c r="G31" s="1">
         <v>3</v>
@@ -2135,55 +2259,64 @@
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C32" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G32" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G33" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C34" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D34" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="E34" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="F32" s="1" t="s">
+      <c r="F34" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="G32" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C33" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G33" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C34" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="G34" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C35" s="1" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>18</v>
@@ -2192,62 +2325,90 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C36" s="1" t="s">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G36" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C37" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D37" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G37" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C38" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G38" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C39" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D39" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G37" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C38" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G38" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C39" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G39" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C40" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G40" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C41" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G41" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2267,14 +2428,71 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B2:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="1.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="2.25" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B2" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="C3" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="C4" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="C5" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="C6" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="C7" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="C8" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="C9" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="C10" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Apocalypse.xlsx
+++ b/Apocalypse.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="5535" windowHeight="3825" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="5535" windowHeight="2235" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ToDo" sheetId="1" r:id="rId1"/>
     <sheet name="ClassMember" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="145">
   <si>
     <t>種類</t>
     <rPh sb="0" eb="2">
@@ -292,39 +292,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>FramePositionの指定と逆の位置に描画される問題を解決</t>
-    <rPh sb="14" eb="16">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>ギャク</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>イチ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ビョウガ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>モンダイ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>カイケツ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>後でやる</t>
-    <rPh sb="0" eb="1">
-      <t>アト</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Draw</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>PictureFrameにPathメンバを作成する</t>
     <rPh sb="21" eb="23">
       <t>サクセイ</t>
@@ -1018,6 +985,225 @@
   </si>
   <si>
     <t>デストラクタ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>✔</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>FontのEdgeを動的に変更した場合に対処できてない既知の不都合あり．対策方法はEdge変更を検知して_DrawTextArrayを再設定しなおすこと．</t>
+    <rPh sb="10" eb="12">
+      <t>ドウテキ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>タイショ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>キチ</t>
+    </rPh>
+    <rPh sb="30" eb="33">
+      <t>フツゴウ</t>
+    </rPh>
+    <rPh sb="36" eb="40">
+      <t>タイサクホウホウ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>ケンチ</t>
+    </rPh>
+    <rPh sb="67" eb="70">
+      <t>サイセッテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>BOOST_ASSERT_MSGを使う</t>
+    <rPh sb="17" eb="18">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>必要そうなのはひと通り実装/描画負荷改善</t>
+    <rPh sb="0" eb="2">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>トオ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ビョウガ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>フカ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>カイゼン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>✔</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Draw</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>GradationFrameの処理を軽くする</t>
+    <rPh sb="15" eb="17">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>カル</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>低</t>
+    <rPh sb="0" eb="1">
+      <t>テイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Value</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TimerにStopedメンバを配置し，値がtrueならカウンタ増加を停止</t>
+    <rPh sb="16" eb="18">
+      <t>ハイチ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ゾウカ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>テイシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>中</t>
+    <rPh sb="0" eb="1">
+      <t>チュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>検討中</t>
+    <rPh sb="0" eb="3">
+      <t>ケントウチュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TextFrameの処理速度が改善?</t>
+    <rPh sb="10" eb="12">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ソクド</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>カイゼン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>コンストラクタは標準引数(param = 0)などを使用せずに分けて作る</t>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジュン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Draw</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Margin, Paddingプロパティを実装</t>
+    <rPh sb="21" eb="23">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>中</t>
+    <rPh sb="0" eb="1">
+      <t>チュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Value</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>プロパティにはRectangle::__Propertyクラスを使用する</t>
+    <rPh sb="32" eb="34">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>MarginRectangleクラスを実装する</t>
+    <rPh sb="19" eb="21">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TimerでStopの値が変更された時に現在のCounterの値を仮保存しておく</t>
+    <rPh sb="11" eb="12">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>カリ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ホゾン</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1112,7 +1298,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1125,7 +1310,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -1416,14 +1602,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="テーブル1" displayName="テーブル1" ref="B2:H41" headerRowDxfId="15" dataDxfId="14">
-  <autoFilter ref="B2:H41">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="テーブル1" displayName="テーブル1" ref="B2:H45" headerRowDxfId="15" dataDxfId="14">
+  <autoFilter ref="B2:H45">
     <filterColumn colId="0">
       <filters blank="1"/>
     </filterColumn>
   </autoFilter>
-  <sortState ref="B15:H37">
-    <sortCondition descending="1" ref="G2:G37"/>
+  <sortState ref="B15:H42">
+    <sortCondition descending="1" ref="G2:G42"/>
   </sortState>
   <tableColumns count="7">
     <tableColumn id="1" name="✔" dataDxfId="13" totalsRowDxfId="12"/>
@@ -1725,10 +1911,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H41"/>
+  <dimension ref="B1:H45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.35"/>
@@ -1739,24 +1925,24 @@
     <col min="4" max="4" width="41.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.625" style="1" customWidth="1"/>
     <col min="6" max="6" width="7.25" style="1" customWidth="1"/>
-    <col min="7" max="7" width="7.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="5.625" style="1" customWidth="1"/>
     <col min="8" max="8" width="6.5" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="7" t="s">
+      <c r="C1" s="4"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="6" t="s">
         <v>33</v>
       </c>
       <c r="F1" s="8"/>
-      <c r="G1" s="3">
+      <c r="G1" s="7">
         <f>(COUNTA(B:B)-2)/(COUNTA(C:C)-1)*100</f>
-        <v>41.025641025641022</v>
+        <v>46.511627906976742</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>34</v>
@@ -1782,15 +1968,15 @@
         <v>2</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>21</v>
@@ -1821,7 +2007,7 @@
     </row>
     <row r="5" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="B5" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>6</v>
@@ -1830,7 +2016,7 @@
         <v>13</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>17</v>
@@ -1841,16 +2027,16 @@
     </row>
     <row r="6" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="B6" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G6" s="1">
         <v>5</v>
@@ -1858,16 +2044,16 @@
     </row>
     <row r="7" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="B7" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G7" s="1">
         <v>5</v>
@@ -1878,13 +2064,13 @@
         <v>15</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G8" s="1">
         <v>4</v>
@@ -1895,13 +2081,13 @@
         <v>15</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G9" s="1">
         <v>4</v>
@@ -1912,13 +2098,13 @@
         <v>15</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>75</v>
-      </c>
       <c r="F10" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G10" s="1">
         <v>3</v>
@@ -1926,13 +2112,13 @@
     </row>
     <row r="11" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="B11" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>16</v>
@@ -1946,10 +2132,10 @@
         <v>35</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>18</v>
@@ -1960,16 +2146,16 @@
     </row>
     <row r="13" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="B13" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D13" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>87</v>
       </c>
       <c r="G13" s="1">
         <v>3</v>
@@ -1977,19 +2163,19 @@
     </row>
     <row r="14" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="B14" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G14" s="1">
         <v>5</v>
@@ -1997,69 +2183,90 @@
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C15" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G15" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="1" t="s">
+        <v>124</v>
+      </c>
       <c r="C16" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G16" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="1" t="s">
+        <v>124</v>
+      </c>
       <c r="C17" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>127</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G17" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="1" t="s">
+        <v>124</v>
+      </c>
       <c r="C18" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>125</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G18" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="1" t="s">
+        <v>128</v>
+      </c>
       <c r="C19" s="1" t="s">
-        <v>69</v>
+        <v>129</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>70</v>
+        <v>130</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>71</v>
+        <v>131</v>
       </c>
       <c r="G19" s="1">
         <v>5</v>
@@ -2067,13 +2274,16 @@
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C20" s="1" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>94</v>
+        <v>143</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>142</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>71</v>
+        <v>140</v>
       </c>
       <c r="G20" s="1">
         <v>5</v>
@@ -2081,115 +2291,109 @@
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C21" s="1" t="s">
-        <v>89</v>
+        <v>138</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>95</v>
+        <v>139</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>91</v>
+        <v>140</v>
       </c>
       <c r="G21" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="1" t="s">
-        <v>105</v>
-      </c>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C22" s="1" t="s">
-        <v>99</v>
+        <v>141</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>104</v>
+        <v>144</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="G22" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C23" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G23" s="1">
         <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G23" s="1">
-        <v>2</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C24" s="1" t="s">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>56</v>
+        <v>91</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="G24" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C25" s="1" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="G25" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="1" t="s">
+        <v>102</v>
+      </c>
       <c r="C26" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G26" s="1">
         <v>5</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G26" s="1">
-        <v>4</v>
       </c>
     </row>
     <row r="27" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B27" s="1" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>45</v>
+        <v>14</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="G27" s="1">
         <v>2</v>
@@ -2197,27 +2401,30 @@
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C28" s="1" t="s">
-        <v>89</v>
+        <v>132</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>90</v>
+        <v>133</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>91</v>
+        <v>134</v>
       </c>
       <c r="G28" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C29" s="1" t="s">
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>92</v>
+        <v>53</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>135</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="G29" s="1">
         <v>4</v>
@@ -2225,190 +2432,252 @@
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C30" s="1" t="s">
-        <v>64</v>
+        <v>108</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>24</v>
+        <v>109</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>61</v>
+        <v>110</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>18</v>
+        <v>111</v>
       </c>
       <c r="G30" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C31" s="1" t="s">
-        <v>51</v>
+        <v>5</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>98</v>
+        <v>19</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="G31" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="C32" s="1" t="s">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>78</v>
+        <v>42</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="G32" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="1" t="s">
-        <v>102</v>
-      </c>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C33" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G33" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C34" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G34" s="1">
         <v>4</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G34" s="1">
-        <v>2</v>
       </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C35" s="1" t="s">
-        <v>5</v>
+        <v>61</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>12</v>
+        <v>24</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G35" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C36" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G36" s="1">
         <v>3</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G36" s="1">
-        <v>2</v>
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C37" s="1" t="s">
-        <v>25</v>
+        <v>73</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>28</v>
+        <v>74</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="G37" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="1" t="s">
+        <v>99</v>
+      </c>
       <c r="C38" s="1" t="s">
-        <v>36</v>
+        <v>82</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>38</v>
+        <v>100</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>18</v>
+        <v>84</v>
       </c>
       <c r="G38" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C39" s="1" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>27</v>
+        <v>10</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G39" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C40" s="1" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G40" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C41" s="1" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G41" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C42" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G42" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C43" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G43" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C44" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G44" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C45" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G45" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2428,10 +2697,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E10"/>
+  <dimension ref="B2:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.35"/>
@@ -2443,50 +2712,55 @@
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C3" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C4" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C5" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C6" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C7" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C8" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C9" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C10" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B12" s="1" t="s">
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -2500,7 +2774,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
